--- a/output.xlsx
+++ b/output.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="월별 자산 금액" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="위험자산 월별 자산 금액(국가별)" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +451,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2024.03(월)</t>
+          <t>2024.04(원)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2024.05(원)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2024.07(월)</t>
         </is>
       </c>
     </row>
@@ -479,7 +488,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>18,425,631</t>
+          <t>19,025,629</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>19,791,770</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20,574,234</t>
         </is>
       </c>
     </row>
@@ -506,7 +525,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>16,154,675</t>
+          <t>15,853,567</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>15,561,018</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15,535,348</t>
         </is>
       </c>
     </row>
@@ -533,59 +562,89 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>58,830,085</t>
+          <t>59,352,429</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>62,471,118</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>65,129,255</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>연금저축</t>
+          <t>공모주 투자</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12,663,003</t>
+          <t>1,042,287</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13,292,628</t>
+          <t>1,118,769</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14,038,111</t>
+          <t>1,120,394</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>14,038,111</t>
+          <t>1,137,938</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1,163,159</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>공모주 투자</t>
+          <t>부동산 투자</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1,042,287</t>
+          <t>11,251,767</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1,118,769</t>
+          <t>20,434,698</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1,120,394</t>
+          <t>21,228,106</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
+        <is>
+          <t>22,032,471</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>22,819,985</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -594,25 +653,35 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>부동산 투자</t>
+          <t>위험자산</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11,251,767</t>
+          <t>98,912,917</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20,434,698</t>
+          <t>112,090,392</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21,228,106</t>
+          <t>115,758,891</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
+        <is>
+          <t>117,402,034</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>121,807,050</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -621,25 +690,35 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>위험자산</t>
+          <t>우리은행 청년 주택드림 청약통장</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>111,575,920</t>
+          <t>4,580,000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>125,383,020</t>
+          <t>4,680,000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>129,797,002</t>
+          <t>4,780,000</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
+        <is>
+          <t>4,880,000</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4,980,000</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -648,25 +727,35 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>우리은행 청년 주택드림 청약통장</t>
+          <t>우리은행 우리 청년희망 적금</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4,580,000</t>
+          <t>4,800,000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4,680,000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4,780,000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -675,25 +764,36 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>우리은행 우리 청년희망 적금</t>
+          <t>우리은행 연세금융센터
+적금 기본형(23년05회)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4,800,000</t>
+          <t>900,000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,200,000</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,500,000</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
+        <is>
+          <t>1,800,000</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2,100,000</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -702,26 +802,35 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>우리은행 연세금융센터
-적금 기본형(23년05회)</t>
+          <t>우리은행 WON 정기적금</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>900,000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1,200,000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1,500,000</t>
+          <t>200,000</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
+        <is>
+          <t>300,000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>400,000</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -730,25 +839,35 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>우리은행 WON 정기적금</t>
+          <t>달러(우리은행 외화보통예금)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>721,089</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>775,776</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>200,000</t>
+          <t>835,490</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
+        <is>
+          <t>896,980</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>967,791</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -757,25 +876,35 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>달러(수시입출금 계좌)</t>
+          <t>우리은행 위비트래블 외화예금(달러)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>721,089</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>775,776</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>835,490</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -784,7 +913,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>외화정기예금(자동갱신, 달러)</t>
+          <t>우리은행 외화정기예금(자동갱신, 달러)_1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -803,6 +932,16 @@
         </is>
       </c>
       <c r="E14" t="inlineStr">
+        <is>
+          <t>3,578,396</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3,650,532</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -811,106 +950,146 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>금 현물(krx 금 계좌)</t>
+          <t>우리은행 외화정기예금(자동갱신, 달러)_2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4,165,627</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4,211,496</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4,794,456</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4,794,456</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>가상화폐</t>
+          <t>금 현물(krx 금 계좌)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3,966,379</t>
+          <t>4,165,627</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>6,089,225</t>
+          <t>4,211,496</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7,070,006</t>
+          <t>4,794,456</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7,070,006</t>
+          <t>5,000,979</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5,182,839</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>5,178,103</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>비상금(우리은행 파킹계좌)</t>
+          <t>가상화폐</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2,831,465</t>
+          <t>3,966,379</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2,832,071</t>
+          <t>6,089,225</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2,832,978</t>
+          <t>7,070,006</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6,371,710</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7,357,459</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>6,895,441</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>비상금(미래에셋증권 CMA계좌)</t>
+          <t>비상금(우리은행 파킹계좌)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2,989,198</t>
+          <t>2,831,465</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3,045,763</t>
+          <t>2,832,071</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3,108,518</t>
+          <t>2,832,978</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
+        <is>
+          <t>2,834,114</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2,835,025</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -919,25 +1098,35 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>비목적자금(우리은행 급여 계좌)</t>
+          <t>비상금(미래에셋증권 CMA계좌)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1,172,383</t>
+          <t>2,989,198</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>921,292</t>
+          <t>3,045,763</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1,068,407</t>
+          <t>3,108,518</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
+        <is>
+          <t>3,166,209</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3,221,875</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -946,25 +1135,35 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>비목적자금(새마을금고 생활비 계좌)</t>
+          <t>비목적자금(우리은행 급여 계좌)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>429,603</t>
+          <t>1,172,383</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>39,734</t>
+          <t>921,292</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>83,212</t>
+          <t>1,068,407</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
+        <is>
+          <t>624,419</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>763,854</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -973,25 +1172,35 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>비목적자금(현금)</t>
+          <t>비목적자금(새마을금고 생활비 계좌)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>30,000</t>
+          <t>429,603</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20,000</t>
+          <t>39,734</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>19,000</t>
+          <t>83,212</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
+        <is>
+          <t>43,401</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>55,654</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1000,66 +1209,86 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>엔화(우리은행 외화보통예금)</t>
+          <t>비목적자금(현금)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>117,530</t>
+          <t>30,000</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>116,017</t>
+          <t>20,000</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>115,779</t>
+          <t>19,000</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>115,779</t>
+          <t>3,000</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3,000</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>지인에게 빌려준 돈</t>
+          <t>엔화(우리은행 외화보통예금)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>117,530</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>116,017</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>115,779</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>115,622</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>114,292</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>111,865</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>원룸 보증금</t>
+          <t>지인에게 빌려준 돈</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3,000,000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1073,6 +1302,16 @@
         </is>
       </c>
       <c r="E24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1081,25 +1320,35 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>CMA계좌 자산(성과급 임시 보관)</t>
+          <t>원룸 보증금</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4,357,030</t>
+          <t>3,000,000</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>6,888,109</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6,073,534</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1108,25 +1357,35 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>안전자산</t>
+          <t>CMA계좌 자산(성과급 임시 보관)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>37,543,633</t>
+          <t>4,357,030</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>34,318,570</t>
+          <t>6,888,109</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>36,016,667</t>
+          <t>6,073,534</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
+        <is>
+          <t>4,487,070</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2,701,397</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1135,25 +1394,35 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>부채</t>
+          <t>안전자산</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37,543,633</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34,318,570</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>36,016,667</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
+        <is>
+          <t>34,101,900</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>34,333,718</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1162,572 +1431,220 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>자산 합계</t>
+          <t>연금저축</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>149,119,553</t>
+          <t>12,663,003</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>159,701,590</t>
+          <t>13,292,628</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>165,813,669</t>
+          <t>14,038,111</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14,381,700</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>15,218,675</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>16,038,091</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
+          <t>퇴직연금(DC형)</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>연금자산</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>12,663,003</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>13,292,628</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>14,038,111</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>14,381,700</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>15,218,675</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>부채</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>자산 합계</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>149,119,553</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>159,701,590</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>165,813,669</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>165,885,634</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>171,359,443</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
           <t>순자산</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>149,119,553</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>159,701,590</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>165,813,669</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>2024.01(원)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2024.02(원)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2024.03(월)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>주식(중개형ISA)_국내</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>6,118,800</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>6,220,300</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4,750,900</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>공모주 투자_국내</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>14,000</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>부동산 투자_국내</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>국내 합계</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>6,132,800</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>6,220,300</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>적립식 펀드_선진국</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>7,474,390</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>8,043,440</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8,387,337</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>주식_선진국</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>48,982,592</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>51,388,992</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>53,816,228</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>연금저축(ETF)_선진국</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>9,595,340</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10,140,580</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>10,687,910</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>연금저축(펀드)_선진국</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>5,528</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>6,024</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6,242</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>주식(중개형ISA)_선진국</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2,919,360</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2,996,945</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3,088,300</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>선진국 합계</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>68,977,210</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>72,575,981</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>적립식 펀드_신흥국</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>9,699,306</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10,193,379</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>10,038,294</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>주식_신흥국</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>4,313,006</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4,582,121</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4,960,786</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>연금저축_신흥국</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3,058,770</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>3,137,895</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3,339,930</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>주식(중개형ISA)_신흥국</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2,308,155</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2,377,840</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2,400,560</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>신흥국 합계</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>19,379,237</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>20,291,235</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>주식(중개형ISA)_예수금</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>4,712,967</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>4,643,628</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5,936,425</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>해외주식_예수금</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>90,285</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>111,796</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>53,071</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>연금저축_예수금</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>3,365</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>8,129</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4,029</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>공모주 투자_예수금</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1,028,287</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1,118,769</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>부동산 투자_예수금</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>11,251,767</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>20,434,698</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>예수금 합계</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>17,086,671</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>26,317,020</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>전체 합계</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>111,575,919</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>125,404,536</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>165,885,634</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>171,359,443</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="월별 자산 금액" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="위험자산 월별 자산 금액(국가별)" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +462,11 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>2024.06(원)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>2024.07(월)</t>
         </is>
       </c>
@@ -501,6 +507,11 @@
           <t>20,574,234</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20,624,327</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -538,6 +549,11 @@
           <t>15,535,348</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>15,373,459</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -575,6 +591,11 @@
           <t>65,129,255</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>66,851,624</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -609,6 +630,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>1,281,657</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -616,35 +642,40 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>부동산 투자</t>
+          <t>금융 자산(위험)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11,251,767</t>
+          <t>87,661,150</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20,434,698</t>
+          <t>91,655,694</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21,228,106</t>
+          <t>94,530,785</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22,032,471</t>
+          <t>95,369,563</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>22,819,985</t>
+          <t>98,987,065</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
+        <is>
+          <t>102,520,494</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -653,35 +684,40 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>위험자산</t>
+          <t>부동산 투자</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>98,912,917</t>
+          <t>11,251,767</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>112,090,392</t>
+          <t>20,434,698</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>115,758,891</t>
+          <t>21,228,106</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>117,402,034</t>
+          <t>22,032,471</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>121,807,050</t>
+          <t>22,819,985</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
+        <is>
+          <t>23,621,300</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -690,35 +726,40 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>우리은행 청년 주택드림 청약통장</t>
+          <t>부동산 자산</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4,580,000</t>
+          <t>11,251,767</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4,680,000</t>
+          <t>20,434,698</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4,780,000</t>
+          <t>21,228,106</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4,880,000</t>
+          <t>22,032,471</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4,980,000</t>
+          <t>22,819,985</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
+        <is>
+          <t>23,621,300</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -727,35 +768,40 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>우리은행 우리 청년희망 적금</t>
+          <t>우리은행 청년 주택드림 청약통장</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4,800,000</t>
+          <t>4,580,000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,680,000</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,780,000</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,880,000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,980,000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
+        <is>
+          <t>5,080,000</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -764,45 +810,1576 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
+          <t>우리은행 우리 청년희망 적금</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>4,800,000</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
           <t>우리은행 연세금융센터
 적금 기본형(23년05회)</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>900,000</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1,200,000</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1,500,000</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1,800,000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2,100,000</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2,400,000</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>우리은행 WON 정기적금</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>200,000</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>300,000</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>400,000</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>500,000</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>달러(우리은행 외화보통예금)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>721,089</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>775,776</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>835,490</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>896,980</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>967,791</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>우리은행 위비트래블 외화예금(달러)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>55,540</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>우리은행 외화정기예금(자동갱신, 달러)_1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3,483,329</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3,499,087</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3,535,287</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3,578,396</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3,650,532</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3,677,150</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>우리은행 외화정기예금(자동갱신, 달러)_2</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>973,310</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>금 현물(krx 금 계좌)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4,165,627</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4,211,496</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4,794,456</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5,000,979</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5,182,839</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>5,178,103</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>5,425,966</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>가상화폐</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3,966,379</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>6,089,225</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7,070,006</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>6,371,710</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7,357,459</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>6,895,441</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>7,276,382</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>비상금(우리은행 파킹계좌)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2,831,465</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2,832,071</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2,832,978</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2,834,114</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2,835,025</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2,835,937</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>비상금(미래에셋증권 CMA계좌)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2,989,198</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3,045,763</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3,108,518</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3,166,209</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3,221,875</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>3,279,115</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>비목적자금(우리은행 급여 계좌)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1,172,383</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>921,292</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1,068,407</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>624,419</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>763,854</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>159,603</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>비목적자금(새마을금고 생활비 계좌)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>429,603</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>39,734</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>83,212</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>43,401</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>55,654</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>53,361</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>비목적자금(현금)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>30,000</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>20,000</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>19,000</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>3,000</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3,000</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>3,000</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>엔화(우리은행 외화보통예금)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>117,530</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>116,017</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>115,779</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>115,622</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>114,292</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>111,865</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>118,649</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>지인에게 빌려준 돈</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>원룸 보증금</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3,000,000</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>CMA계좌 자산(성과급 임시 보관)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>4,357,030</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>6,888,109</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6,073,534</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>4,487,070</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2,701,397</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2,424,478</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>금융 자산(안전)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>37,543,633</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>34,318,570</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>36,016,667</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>34,101,900</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>34,333,718</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>33,626,958</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>연금저축</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>12,663,003</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>13,292,628</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>14,038,111</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>14,381,700</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>15,218,675</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>16,038,091</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>16,078,233</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>퇴직연금(DC형)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>7,680,167</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>연금 자산</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>12,663,003</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>13,292,628</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14,038,111</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>14,381,700</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>15,218,675</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>23,718,258</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>부채</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>순자산(연금자산 제외)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>136,456,550</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>146,408,962</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>151,775,558</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>151,503,934</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>156,140,768</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>159,768,752</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>순자산</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>149,119,553</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>159,701,590</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>165,813,669</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>165,885,634</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>171,359,443</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>183,487,010</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>자산 합계(연금자산 제외)</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>136,456,550</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>146,408,962</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>151,775,558</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>151,503,934</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>156,140,768</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>159,768,752</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>자산 합계</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>149,119,553</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>159,701,590</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>165,813,669</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>165,885,634</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>171,359,443</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>183,487,010</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2024.01(원)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2024.02(원)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2024.03(원)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2024.04(원)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2024.05(원)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2024.06(원)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2024.07(월)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>주식(중개형ISA)_국내</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>6,118,800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>6,220,300</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4,750,900</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5,369,900</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5,043,400</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4,889,400</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>4,059,300</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>공모주 투자_국내</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>14,000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13,000</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>18,000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>부동산 투자_국내</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>국내 합계</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>6,132,800</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>6,220,300</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4,763,900</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5,387,900</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5,043,400</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4,889,400</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>적립식 펀드_선진국</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>7,474,390</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>8,043,440</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8,387,337</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>8,227,890</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8,790,811</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>9,160,186</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>8,934,169</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>주식_선진국</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>48,982,592</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>51,388,992</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>53,816,228</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>54,071,862</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>56,967,046</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>59,337,425</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>60,834,360</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>연금저축(ETF)_선진국</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>9,595,340</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10,140,580</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10,687,910</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10,666,795</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>11,485,520</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>12,321,370</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>12,278,700</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>연금저축(펀드)_선진국</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5,528</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>6,024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6,242</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>6,031</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6,366</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>6,572</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>6,460</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>주식(중개형ISA)_선진국</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>900,000</t>
+          <t>2,919,360</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1,200,000</t>
+          <t>2,996,945</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1,500,000</t>
+          <t>3,088,300</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1,800,000</t>
+          <t>3,002,530</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2,100,000</t>
+          <t>3,153,270</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,336,160</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>3,748,020</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>우리은행 WON 정기적금</t>
+          <t>퇴직연금(DC형)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -817,20 +2394,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>200,000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>300,000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>400,000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
+        <is>
+          <t>5,440,325</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -839,35 +2421,40 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>달러(우리은행 외화보통예금)</t>
+          <t>선진국 합계</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>721,089</t>
+          <t>68,977,210</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>775,776</t>
+          <t>72,575,981</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>835,490</t>
+          <t>75,986,017</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>896,980</t>
+          <t>75,975,108</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>967,791</t>
+          <t>80,403,013</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
+        <is>
+          <t>89,602,038</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -876,331 +2463,376 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>우리은행 위비트래블 외화예금(달러)</t>
+          <t>적립식 펀드_신흥국</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9,699,306</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10,193,379</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10,038,294</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10,797,739</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11,000,959</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11,414,048</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>11,690,158</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>우리은행 외화정기예금(자동갱신, 달러)_1</t>
+          <t>주식_신흥국</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3,483,329</t>
+          <t>4,313,006</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3,499,087</t>
+          <t>4,582,121</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3,535,287</t>
+          <t>4,960,786</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3,578,396</t>
+          <t>5,162,858</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3,650,532</t>
+          <t>5,409,125</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5,661,015</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>5,892,426</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>우리은행 외화정기예금(자동갱신, 달러)_2</t>
+          <t>연금저축_신흥국</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,058,770</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,137,895</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,339,930</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,681,510</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,724,700</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,692,500</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>3,792,600</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>금 현물(krx 금 계좌)</t>
+          <t>주식(중개형ISA)_신흥국</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4,165,627</t>
+          <t>2,308,155</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4,211,496</t>
+          <t>2,377,840</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4,794,456</t>
+          <t>2,400,560</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5,000,979</t>
+          <t>2,538,070</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5,182,839</t>
+          <t>2,520,620</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>5,178,103</t>
+          <t>2,566,060</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2,785,810</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>가상화폐</t>
+          <t>신흥국 합계</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3,966,379</t>
+          <t>19,379,237</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>6,089,225</t>
+          <t>20,291,235</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7,070,006</t>
+          <t>20,739,570</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6,371,710</t>
+          <t>22,180,177</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>7,357,459</t>
+          <t>22,655,404</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6,895,441</t>
+          <t>23,333,623</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>비상금(우리은행 파킹계좌)</t>
+          <t>주식(중개형ISA)_예수금</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2,831,465</t>
+          <t>4,712,967</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2,832,071</t>
+          <t>4,643,628</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2,832,978</t>
+          <t>5,936,425</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2,834,114</t>
+          <t>4,966,597</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2,835,025</t>
+          <t>4,867,258</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,767,258</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>4,805,819</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>비상금(미래에셋증권 CMA계좌)</t>
+          <t>해외주식_예수금</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2,989,198</t>
+          <t>90,285</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3,045,763</t>
+          <t>111,796</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3,108,518</t>
+          <t>53,071</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3,166,209</t>
+          <t>117,709</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3,221,875</t>
+          <t>94,947</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>130,815</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>124,838</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>비목적자금(우리은행 급여 계좌)</t>
+          <t>연금저축_예수금</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1,172,383</t>
+          <t>3,365</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>921,292</t>
+          <t>8,129</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1,068,407</t>
+          <t>4,029</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>624,419</t>
+          <t>27,364</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>763,854</t>
+          <t>2,089</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17,649</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>473</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>비목적자금(새마을금고 생활비 계좌)</t>
+          <t>공모주 투자_예수금</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>429,603</t>
+          <t>1,028,287</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>39,734</t>
+          <t>1,118,769</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>83,212</t>
+          <t>1,107,394</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>43,401</t>
+          <t>1,119,938</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>55,654</t>
+          <t>1,163,159</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
+        <is>
+          <t>1,281,657</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1209,35 +2841,40 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>비목적자금(현금)</t>
+          <t>부동산 투자_예수금</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>30,000</t>
+          <t>11,251,767</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>20,000</t>
+          <t>20,434,698</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>19,000</t>
+          <t>21,228,106</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>22,032,471</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>22,819,985</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
+        <is>
+          <t>23,621,300</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1246,405 +2883,82 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>엔화(우리은행 외화보통예금)</t>
+          <t>예수금 합계</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>117,530</t>
+          <t>17,086,671</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>116,017</t>
+          <t>26,317,020</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>115,779</t>
+          <t>28,329,025</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>115,622</t>
+          <t>28,264,079</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>114,292</t>
+          <t>28,947,438</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>111,865</t>
+          <t>29,818,679</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>지인에게 빌려준 돈</t>
+          <t>전체 합계</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>111,575,919</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>125,404,536</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>129,818,512</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>131,807,264</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>137,049,255</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>원룸 보증금</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>3,000,000</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>CMA계좌 자산(성과급 임시 보관)</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>4,357,030</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>6,888,109</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>6,073,534</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>4,487,070</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2,701,397</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>안전자산</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>37,543,633</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>34,318,570</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>36,016,667</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>34,101,900</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>34,333,718</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>연금저축</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>12,663,003</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>13,292,628</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>14,038,111</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>14,381,700</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>15,218,675</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>16,038,091</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>퇴직연금(DC형)</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>연금자산</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>12,663,003</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>13,292,628</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>14,038,111</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>14,381,700</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>15,218,675</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>부채</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>자산 합계</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>149,119,553</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>159,701,590</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>165,813,669</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>165,885,634</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>171,359,443</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>순자산</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>149,119,553</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>159,701,590</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>165,813,669</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>165,885,634</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>171,359,443</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
+          <t>147,643,740</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/output.xlsx
+++ b/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,27 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2024.07(월)</t>
+          <t>2024.07(원)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2024.08(원)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2024.09(원)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2024.10(원)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2024.11(월)</t>
         </is>
       </c>
     </row>
@@ -512,6 +532,26 @@
           <t>20,624,327</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>20,642,067</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>21,564,706</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>22,029,897</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>22,234,784</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -554,6 +594,26 @@
           <t>15,373,459</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>10,403,614</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>10,390,159</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>10,660,399</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>11,157,503</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,6 +656,26 @@
           <t>66,851,624</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>67,140,040</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>68,157,890</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>73,785,227</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>77,389,571</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -635,6 +715,26 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>1,348,074</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1,426,226</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1,474,108</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1,505,910</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -677,6 +777,26 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>104,197,484</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>99,611,947</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>101,586,863</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>107,981,433</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -719,6 +839,26 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>24,423,401</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>30,016,564</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>30,830,759</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>31,647,011</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -761,6 +901,26 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>24,423,401</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>30,016,564</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>30,830,759</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>31,647,011</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -803,6 +963,26 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>5,100,000</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>5,120,000</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>5,140,000</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>5,160,000</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -848,12 +1028,31 @@
           <t>0</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>우리은행 연세금융센터
-적금 기본형(23년05회)</t>
+          <t>우리은행 연세금융센터 적금 기본형(23년05회)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -887,6 +1086,26 @@
         </is>
       </c>
       <c r="H11" t="inlineStr">
+        <is>
+          <t>2,700,000</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>3,000,000</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>3,300,000</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>3,600,000</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -930,6 +1149,26 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>600,000</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>700,000</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>800,000</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>900,000</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -937,40 +1176,60 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>달러(우리은행 외화보통예금)</t>
+          <t>우리은행 스무살 우리적금(도전형-정액적립식)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>721,089</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>775,776</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>835,490</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>896,980</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>967,791</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
+        <is>
+          <t>160,000</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>240,000</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>320,000</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>400,000</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -979,40 +1238,60 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>우리은행 위비트래블 외화예금(달러)</t>
+          <t>달러(우리은행 외화보통예금)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>721,089</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>775,776</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>835,490</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>896,980</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>967,791</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>55,540</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1021,40 +1300,60 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>우리은행 외화정기예금(자동갱신, 달러)_1</t>
+          <t>우리은행 위비트래블 외화예금(달러)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3,483,329</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3,499,087</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3,535,287</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3,578,396</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3,650,532</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3,677,150</t>
+          <t>55,540</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
+        <is>
+          <t>109,872</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>160,776</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>212,246</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>278,709</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1063,40 +1362,60 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>우리은행 외화정기예금(자동갱신, 달러)_2</t>
+          <t>우리은행 외화정기예금(자동갱신, 달러)_1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,483,329</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,499,087</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,535,287</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,578,396</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,650,532</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>973,310</t>
+          <t>3,677,150</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
+        <is>
+          <t>3,647,516</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>3,570,942</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>3,494,633</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>3,691,066</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1105,166 +1424,246 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>금 현물(krx 금 계좌)</t>
+          <t>우리은행 외화정기예금(자동갱신, 달러)_2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4,165,627</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4,211,496</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4,794,456</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5,000,979</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5,182,839</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>5,178,103</t>
+          <t>973,310</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>5,425,966</t>
+          <t>965,472</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>945,282</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>925,069</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>977,033</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>가상화폐</t>
+          <t>금 현물(krx 금 계좌)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3,966,379</t>
+          <t>4,165,627</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>6,089,225</t>
+          <t>4,211,496</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7,070,006</t>
+          <t>4,794,456</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6,371,710</t>
+          <t>5,000,979</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7,357,459</t>
+          <t>5,182,839</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>6,895,441</t>
+          <t>5,178,103</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>7,276,382</t>
+          <t>5,425,966</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>5,525,876</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>5,756,842</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>6,617,109</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>6,261,177</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>비상금(우리은행 파킹계좌)</t>
+          <t>가상화폐</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2,831,465</t>
+          <t>3,966,379</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2,832,071</t>
+          <t>6,089,225</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2,832,978</t>
+          <t>7,070,006</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2,834,114</t>
+          <t>6,371,710</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2,835,025</t>
+          <t>7,357,459</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2,835,937</t>
+          <t>6,895,441</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7,276,382</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>5,983,426</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>6,319,630</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>7,362,131</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>10,066,031</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>비상금(미래에셋증권 CMA계좌)</t>
+          <t>비상금(우리은행 파킹계좌)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2,989,198</t>
+          <t>2,831,465</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3,045,763</t>
+          <t>2,832,071</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3,108,518</t>
+          <t>2,832,978</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3,166,209</t>
+          <t>2,834,114</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3,221,875</t>
+          <t>2,835,025</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3,279,115</t>
+          <t>2,835,937</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
+        <is>
+          <t>2,847,078</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2,847,996</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2,849,048</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2,849,967</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1273,40 +1672,60 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>비목적자금(우리은행 급여 계좌)</t>
+          <t>비상금(미래에셋증권 CMA계좌)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1,172,383</t>
+          <t>2,989,198</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>921,292</t>
+          <t>3,045,763</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1,068,407</t>
+          <t>3,108,518</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>624,419</t>
+          <t>3,166,209</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>763,854</t>
+          <t>3,221,875</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>159,603</t>
+          <t>3,279,115</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
+        <is>
+          <t>3,336,090</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>3,393,483</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>3,449,618</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>3,510,064</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1315,40 +1734,60 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>비목적자금(새마을금고 생활비 계좌)</t>
+          <t>비목적자금(우리은행 급여 계좌)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>429,603</t>
+          <t>1,172,383</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>39,734</t>
+          <t>921,292</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>83,212</t>
+          <t>1,068,407</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>43,401</t>
+          <t>624,419</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>55,654</t>
+          <t>763,854</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>53,361</t>
+          <t>159,603</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
+        <is>
+          <t>1,171,744</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>438,178</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>555,662</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2,335</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1357,40 +1796,60 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>비목적자금(현금)</t>
+          <t>비목적자금(새마을금고 생활비 계좌)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>30,000</t>
+          <t>429,603</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>20,000</t>
+          <t>39,734</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>19,000</t>
+          <t>83,212</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>43,401</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>55,654</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>53,361</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
+        <is>
+          <t>128,840</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>87,330</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>24,089</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>15,788</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1399,96 +1858,136 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>엔화(우리은행 외화보통예금)</t>
+          <t>비목적자금(현금)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>117,530</t>
+          <t>30,000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>116,017</t>
+          <t>20,000</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>115,779</t>
+          <t>19,000</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>115,622</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>114,292</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>111,865</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>118,649</t>
+          <t>3,000</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>3,000</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>3,000</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>3,000</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>지인에게 빌려준 돈</t>
+          <t>엔화(우리은행 외화보통예금)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>117,530</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>116,017</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>115,779</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>115,622</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>114,292</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>111,865</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>118,649</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>118,509</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>119,298</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>117,148</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>121,373</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>원룸 보증금</t>
+          <t>지인에게 빌려준 돈</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3,000,000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1517,6 +2016,26 @@
         </is>
       </c>
       <c r="H26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1525,40 +2044,60 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>CMA계좌 자산(성과급 임시 보관)</t>
+          <t>원룸 보증금</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4,357,030</t>
+          <t>3,000,000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>6,888,109</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6,073,534</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4,487,070</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2,701,397</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2,424,478</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1567,40 +2106,60 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>금융 자산(안전)</t>
+          <t>CMA계좌 자산(성과급 임시 보관)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>37,543,633</t>
+          <t>4,357,030</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>34,318,570</t>
+          <t>6,888,109</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>36,016,667</t>
+          <t>6,073,534</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>34,101,900</t>
+          <t>4,487,070</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>34,333,718</t>
+          <t>2,701,397</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>33,626,958</t>
+          <t>2,424,478</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
+        <is>
+          <t>1,807,513</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>608,526</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>1,802,515</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>904,346</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1609,124 +2168,184 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>연금저축</t>
+          <t>금융 자산(안전)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>12,663,003</t>
+          <t>37,543,633</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>13,292,628</t>
+          <t>34,318,570</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>14,038,111</t>
+          <t>36,016,667</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>14,381,700</t>
+          <t>34,101,900</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>15,218,675</t>
+          <t>34,333,718</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>16,038,091</t>
+          <t>33,626,958</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>16,078,233</t>
+          <t>35,398,176</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>32,743,377</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>35,071,702</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>36,388,751</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>퇴직연금(DC형)</t>
+          <t>연금저축</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12,663,003</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13,292,628</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14,038,111</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14,381,700</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15,218,675</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>7,680,167</t>
+          <t>16,038,091</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16,078,233</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>16,065,065</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>16,791,078</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>18,654,540</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>19,316,033</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>연금 자산</t>
+          <t>퇴직연금(DC형)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>12,663,003</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>13,292,628</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>14,038,111</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>14,381,700</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>15,218,675</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>23,718,258</t>
+          <t>7,680,167</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
+        <is>
+          <t>7,568,336</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>7,543,857</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>7,657,885</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>8,002,856</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1735,40 +2354,60 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>부채</t>
+          <t>연금 자산</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12,663,003</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13,292,628</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14,038,111</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14,381,700</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15,218,675</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23,718,258</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
+        <is>
+          <t>23,646,569</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>23,608,922</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>24,448,963</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>26,657,396</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1777,40 +2416,60 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>순자산(연금자산 제외)</t>
+          <t>부채</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>136,456,550</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>146,408,962</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>151,775,558</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>151,503,934</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>156,140,768</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>159,768,752</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1819,40 +2478,60 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>순자산</t>
+          <t>순자산(연금자산 제외)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>149,119,553</t>
+          <t>136,456,550</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>159,701,590</t>
+          <t>146,408,962</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>165,813,669</t>
+          <t>151,775,558</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>165,885,634</t>
+          <t>151,503,934</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>171,359,443</t>
+          <t>156,140,768</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>183,487,010</t>
+          <t>159,768,752</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
+        <is>
+          <t>164,019,061</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>162,371,888</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>167,489,324</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>176,017,195</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1861,40 +2540,60 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>자산 합계(연금자산 제외)</t>
+          <t>순자산</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>136,456,550</t>
+          <t>149,119,553</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>146,408,962</t>
+          <t>159,701,590</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>151,775,558</t>
+          <t>165,813,669</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>151,503,934</t>
+          <t>165,885,634</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>156,140,768</t>
+          <t>171,359,443</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>159,768,752</t>
+          <t>183,487,010</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
+        <is>
+          <t>187,665,630</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>185,980,810</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>191,938,287</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>202,674,591</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1903,40 +2602,122 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
+          <t>자산 합계(연금자산 제외)</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>136,456,550</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>146,408,962</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>151,775,558</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>151,503,934</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>156,140,768</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>159,768,752</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>164,019,061</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>162,371,888</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>167,489,324</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>176,017,195</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
           <t>자산 합계</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>149,119,553</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>159,701,590</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>165,813,669</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>165,885,634</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>171,359,443</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>183,487,010</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>187,665,630</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>185,980,810</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>191,938,287</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>202,674,591</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1953,7 +2734,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1994,7 +2775,27 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2024.07(월)</t>
+          <t>2024.07(원)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2024.08(원)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2024.09(원)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2024.10(원)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2024.11(월)</t>
         </is>
       </c>
     </row>
@@ -2039,6 +2840,26 @@
           <t>4,059,300</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>3,914,500</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>3,721,100</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>3,690,000</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>4,056,400</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2078,6 +2899,26 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>10,000</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>20,000</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>57,846</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>185,096</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -2123,6 +2964,26 @@
           <t>0</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2162,6 +3023,26 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>4,069,300</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>3,934,500</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>3,778,946</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>3,875,096</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -2207,6 +3088,26 @@
           <t>8,934,169</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>9,105,279</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>9,444,105</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>9,696,995</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>10,007,831</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2249,6 +3150,26 @@
           <t>60,834,360</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>61,138,368</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>61,910,913</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>67,452,404</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>71,044,883</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2291,6 +3212,26 @@
           <t>12,278,700</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>12,347,350</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>12,766,365</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>13,757,500</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>14,517,100</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2333,6 +3274,26 @@
           <t>6,460</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>6,439</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>6,417</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>6,590</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>6,843</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2375,6 +3336,26 @@
           <t>3,748,020</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>3,763,500</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>3,827,660</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>3,988,120</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>4,122,805</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2414,6 +3395,26 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>5,273,740</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>5,344,465</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>5,388,930</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>5,621,500</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -2456,6 +3457,26 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>91,075,449</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>91,705,401</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>93,344,390</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>100,523,109</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -2501,6 +3522,26 @@
           <t>11,690,158</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>11,536,788</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>12,120,601</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>12,332,902</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>12,226,953</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2543,6 +3584,26 @@
           <t>5,892,426</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>5,889,944</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>6,116,794</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>6,229,120</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>6,243,930</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2585,6 +3646,26 @@
           <t>3,792,600</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>3,709,250</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>4,016,600</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>4,873,280</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>4,787,820</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2627,6 +3708,26 @@
           <t>2,785,810</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2,714,500</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2,830,285</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2,968,960</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>2,930,570</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2666,6 +3767,26 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
+          <t>24,160,994</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>23,850,482</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>25,084,280</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>26,404,262</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -2711,6 +3832,26 @@
           <t>4,805,819</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>36,604</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>36,604</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>39,199</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>47,728</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -2753,6 +3894,26 @@
           <t>124,838</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>111,728</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>130,183</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>103,703</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>100,758</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -2795,6 +3956,26 @@
           <t>473</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2,026</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1,696</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>17,170</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>4,270</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -2834,6 +4015,26 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
+          <t>1,338,074</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1,406,226</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1,416,262</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1,320,814</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -2876,6 +4077,26 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
+          <t>24,423,401</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>30,016,564</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>30,830,759</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>31,647,011</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -2918,6 +4139,26 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
+          <t>30,692,605</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>31,573,148</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>32,415,504</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>33,127,897</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -2959,6 +4200,26 @@
         </is>
       </c>
       <c r="H24" t="inlineStr">
+        <is>
+          <t>149,998,348</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>151,063,531</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>154,623,120</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>163,930,364</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/output.xlsx
+++ b/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,17 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2024.11(월)</t>
+          <t>2024.11(원)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2024.12(원)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2025.02(월)</t>
         </is>
       </c>
     </row>
@@ -552,6 +562,16 @@
           <t>22,234,784</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>23,387,759</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>22,747,116</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -614,6 +634,16 @@
           <t>11,157,503</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>11,506,053</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>12,430,845</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -676,6 +706,16 @@
           <t>77,389,571</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>84,543,306</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>83,744,808</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -735,6 +775,16 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>1,490,050</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1,492,776</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -797,6 +847,16 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>112,271,908</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>120,929,894</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -859,6 +919,16 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>32,459,606</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>33,269,238</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -921,6 +991,16 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>32,459,606</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>33,269,238</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -983,6 +1063,16 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>5,180,000</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>5,200,000</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -1048,6 +1138,16 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1110,6 +1210,16 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1169,6 +1279,16 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
+          <t>1,000,000</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1,100,000</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -1231,6 +1351,16 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
+          <t>480,000</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>560,000</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -1238,60 +1368,70 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>달러(우리은행 외화보통예금)</t>
+          <t>우리은행 WON플러스예금</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>721,089</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>775,776</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>835,490</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>896,980</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>967,791</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
+        <is>
+          <t>3,670,905</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>3,670,905</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1300,7 +1440,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>우리은행 위비트래블 외화예금(달러)</t>
+          <t>우리은행 우리SUPER주거래정기적금</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1330,30 +1470,40 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>55,540</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>109,872</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>160,776</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>212,246</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>278,709</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
+        <is>
+          <t>200,000</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>300,000</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1362,60 +1512,70 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>우리은행 외화정기예금(자동갱신, 달러)_1</t>
+          <t>달러(우리은행 외화보통예금)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3,483,329</t>
+          <t>721,089</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3,499,087</t>
+          <t>775,776</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3,535,287</t>
+          <t>835,490</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3,578,396</t>
+          <t>896,980</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3,650,532</t>
+          <t>967,791</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3,677,150</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>3,647,516</t>
+          <t>54</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>3,570,942</t>
+          <t>53</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>3,494,633</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>3,691,066</t>
+          <t>55</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1424,7 +1584,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>우리은행 외화정기예금(자동갱신, 달러)_2</t>
+          <t>우리은행 위비트래블 외화예금(달러)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1454,30 +1614,40 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>973,310</t>
+          <t>55,540</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>965,472</t>
+          <t>109,872</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>945,282</t>
+          <t>160,776</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>925,069</t>
+          <t>212,246</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>977,033</t>
+          <t>278,709</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
+        <is>
+          <t>338,535</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1486,308 +1656,358 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>금 현물(krx 금 계좌)</t>
+          <t>우리은행 외화정기예금(자동갱신, 달러)_1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4,165,627</t>
+          <t>3,483,329</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4,211,496</t>
+          <t>3,499,087</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4,794,456</t>
+          <t>3,535,287</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5,000,979</t>
+          <t>3,578,396</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5,182,839</t>
+          <t>3,650,532</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>5,178,103</t>
+          <t>3,677,150</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>5,425,966</t>
+          <t>3,647,516</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>5,525,876</t>
+          <t>3,570,942</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>5,756,842</t>
+          <t>3,494,633</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>6,617,109</t>
+          <t>3,691,066</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>6,261,177</t>
+          <t>3,754,786</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>5,427,499</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>가상화폐</t>
+          <t>우리은행 외화정기예금(자동갱신, 달러)_2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3,966,379</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>6,089,225</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7,070,006</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6,371,710</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>7,357,459</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6,895,441</t>
+          <t>973,310</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>7,276,382</t>
+          <t>965,472</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>5,983,426</t>
+          <t>945,282</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>6,319,630</t>
+          <t>925,069</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>7,362,131</t>
+          <t>977,033</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>10,066,031</t>
+          <t>993,881</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>비상금(우리은행 파킹계좌)</t>
+          <t>금 현물(krx 금 계좌)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2,831,465</t>
+          <t>4,165,627</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2,832,071</t>
+          <t>4,211,496</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2,832,978</t>
+          <t>4,794,456</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2,834,114</t>
+          <t>5,000,979</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2,835,025</t>
+          <t>5,182,839</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2,835,937</t>
+          <t>5,178,103</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2,847,078</t>
+          <t>5,425,966</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2,847,996</t>
+          <t>5,525,876</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2,849,048</t>
+          <t>5,756,842</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2,849,967</t>
+          <t>6,617,109</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6,261,177</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>6,718,544</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>7,097,842</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>비상금(미래에셋증권 CMA계좌)</t>
+          <t>가상화폐</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2,989,198</t>
+          <t>3,966,379</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3,045,763</t>
+          <t>6,089,225</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3,108,518</t>
+          <t>7,070,006</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3,166,209</t>
+          <t>6,371,710</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3,221,875</t>
+          <t>7,357,459</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3,279,115</t>
+          <t>6,895,441</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>3,336,090</t>
+          <t>7,276,382</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>3,393,483</t>
+          <t>5,983,426</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>3,449,618</t>
+          <t>6,319,630</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>3,510,064</t>
+          <t>7,362,131</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10,066,031</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>10,440,108</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>11,846,957</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>비목적자금(우리은행 급여 계좌)</t>
+          <t>비상금(우리은행 파킹계좌)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1,172,383</t>
+          <t>2,831,465</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>921,292</t>
+          <t>2,832,071</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1,068,407</t>
+          <t>2,832,978</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>624,419</t>
+          <t>2,834,114</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>763,854</t>
+          <t>2,835,025</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>159,603</t>
+          <t>2,835,937</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1,171,744</t>
+          <t>2,847,078</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>438,178</t>
+          <t>2,847,996</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>555,662</t>
+          <t>2,849,048</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2,335</t>
+          <t>2,849,967</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
+        <is>
+          <t>2,050,782</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2,851,258</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1796,60 +2016,70 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>비목적자금(새마을금고 생활비 계좌)</t>
+          <t>비상금(미래에셋증권 CMA계좌)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>429,603</t>
+          <t>2,989,198</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>39,734</t>
+          <t>3,045,763</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>83,212</t>
+          <t>3,108,518</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>43,401</t>
+          <t>3,166,209</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>55,654</t>
+          <t>3,221,875</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>53,361</t>
+          <t>3,279,115</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>128,840</t>
+          <t>3,336,090</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>87,330</t>
+          <t>3,393,483</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>24,089</t>
+          <t>3,449,618</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>15,788</t>
+          <t>3,510,064</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
+        <is>
+          <t>3,570,590</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>3,627,274</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1858,60 +2088,70 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>비목적자금(현금)</t>
+          <t>비목적자금(우리은행 급여 계좌)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>30,000</t>
+          <t>1,172,383</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>20,000</t>
+          <t>921,292</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>19,000</t>
+          <t>1,068,407</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>624,419</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>763,854</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>159,603</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>1,171,744</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>438,178</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>555,662</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>2,335</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
+        <is>
+          <t>145,661</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>344,289</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1920,122 +2160,142 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>엔화(우리은행 외화보통예금)</t>
+          <t>비목적자금(새마을금고 생활비 계좌)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>117,530</t>
+          <t>429,603</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>116,017</t>
+          <t>39,734</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>115,779</t>
+          <t>83,212</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>115,622</t>
+          <t>43,401</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>114,292</t>
+          <t>55,654</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>111,865</t>
+          <t>53,361</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>118,649</t>
+          <t>128,840</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>118,509</t>
+          <t>87,330</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>119,298</t>
+          <t>24,089</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>117,148</t>
+          <t>15,788</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>121,373</t>
+          <t>310,861</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>9,785</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>지인에게 빌려준 돈</t>
+          <t>비목적자금(현금)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30,000</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20,000</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19,000</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
+        <is>
+          <t>3,000</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>3,000</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2044,122 +2304,142 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>원룸 보증금</t>
+          <t>엔화(우리은행 외화보통예금)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3,000,000</t>
+          <t>117,530</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>116,017</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>115,779</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>115,622</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>114,292</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>111,865</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>118,649</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>118,509</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>119,298</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>117,148</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>121,373</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>122,275</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>121,927</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>CMA계좌 자산(성과급 임시 보관)</t>
+          <t>지인에게 빌려준 돈</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4,357,030</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>6,888,109</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>6,073,534</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4,487,070</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2,701,397</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2,424,478</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1,807,513</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>608,526</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1,802,515</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>904,346</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2168,60 +2448,70 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>금융 자산(안전)</t>
+          <t>원룸 보증금</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>37,543,633</t>
+          <t>3,000,000</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>34,318,570</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>36,016,667</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>34,101,900</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>34,333,718</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>33,626,958</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>35,398,176</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>32,743,377</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>35,071,702</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>36,388,751</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2230,122 +2520,142 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>연금저축</t>
+          <t>CMA계좌 자산(성과급 임시 보관)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>12,663,003</t>
+          <t>4,357,030</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>13,292,628</t>
+          <t>6,888,109</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>14,038,111</t>
+          <t>6,073,534</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>14,381,700</t>
+          <t>4,487,070</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>15,218,675</t>
+          <t>2,701,397</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>16,038,091</t>
+          <t>2,424,478</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>16,078,233</t>
+          <t>1,807,513</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>16,065,065</t>
+          <t>608,526</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>16,791,078</t>
+          <t>1,802,515</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>18,654,540</t>
+          <t>904,346</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>19,316,033</t>
+          <t>100,037</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>200,284</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>퇴직연금(DC형)</t>
+          <t>금융 자산(안전)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37,543,633</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34,318,570</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>36,016,667</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34,101,900</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34,333,718</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>7,680,167</t>
+          <t>33,626,958</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>7,568,336</t>
+          <t>35,398,176</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>7,543,857</t>
+          <t>32,743,377</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>7,657,885</t>
+          <t>35,071,702</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>8,002,856</t>
+          <t>36,388,751</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
+        <is>
+          <t>38,247,674</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>40,575,221</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2354,7 +2664,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>연금 자산</t>
+          <t>연금저축</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2384,39 +2694,49 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>23,718,258</t>
+          <t>16,038,091</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>23,646,569</t>
+          <t>16,078,233</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>23,608,922</t>
+          <t>16,065,065</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>24,448,963</t>
+          <t>16,791,078</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>26,657,396</t>
+          <t>18,654,540</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19,316,033</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>21,066,767</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>20,787,879</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>부채</t>
+          <t>퇴직연금(DC형)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2446,30 +2766,40 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7,680,167</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7,568,336</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7,543,857</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7,657,885</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8,002,856</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
+        <is>
+          <t>8,157,264</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>11,780,058</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2478,60 +2808,70 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>순자산(연금자산 제외)</t>
+          <t>연금 자산</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>136,456,550</t>
+          <t>12,663,003</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>146,408,962</t>
+          <t>13,292,628</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>151,775,558</t>
+          <t>14,038,111</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>151,503,934</t>
+          <t>14,381,700</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>156,140,768</t>
+          <t>15,218,675</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>159,768,752</t>
+          <t>23,718,258</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>164,019,061</t>
+          <t>23,646,569</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>162,371,888</t>
+          <t>23,608,922</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>167,489,324</t>
+          <t>24,448,963</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>176,017,195</t>
+          <t>26,657,396</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
+        <is>
+          <t>27,473,297</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>32,846,825</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2540,60 +2880,70 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>순자산</t>
+          <t>부채</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>149,119,553</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>159,701,590</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>165,813,669</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>165,885,634</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>171,359,443</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>183,487,010</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>187,665,630</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>185,980,810</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>191,938,287</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>202,674,591</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2602,7 +2952,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>자산 합계(연금자산 제외)</t>
+          <t>순자산(연금자산 제외)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2656,6 +3006,16 @@
         </is>
       </c>
       <c r="L36" t="inlineStr">
+        <is>
+          <t>182,979,188</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>194,774,353</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2664,60 +3024,214 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
+          <t>순자산</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>149,119,553</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>159,701,590</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>165,813,669</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>165,885,634</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>171,359,443</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>183,487,010</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>187,665,630</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>185,980,810</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>191,938,287</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>202,674,591</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>210,452,485</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>227,621,178</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>자산 합계(연금자산 제외)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>136,456,550</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>146,408,962</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>151,775,558</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>151,503,934</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>156,140,768</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>159,768,752</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>164,019,061</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>162,371,888</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>167,489,324</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>176,017,195</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>182,979,188</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>194,774,353</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
           <t>자산 합계</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>149,119,553</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>159,701,590</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>165,813,669</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>165,885,634</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>171,359,443</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>183,487,010</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>187,665,630</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>185,980,810</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>191,938,287</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>202,674,591</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>210,452,485</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>227,621,178</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2734,7 +3248,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2795,7 +3309,17 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2024.11(월)</t>
+          <t>2024.11(원)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2024.12(원)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2025.02(월)</t>
         </is>
       </c>
     </row>
@@ -2860,6 +3384,16 @@
           <t>4,056,400</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>4,087,800</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2,969,500</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2922,6 +3456,16 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2984,6 +3528,16 @@
           <t>0</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3043,6 +3597,16 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>4,056,400</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>4,087,800</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -3108,6 +3672,16 @@
           <t>10,007,831</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>10,517,405</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>10,660,702</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3170,6 +3744,16 @@
           <t>71,044,883</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>77,741,003</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>77,103,659</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3232,6 +3816,16 @@
           <t>14,517,100</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>15,754,980</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>15,722,315</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3294,6 +3888,16 @@
           <t>6,843</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>7,232</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>7,188</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3356,6 +3960,16 @@
           <t>4,122,805</t>
         </is>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>4,325,720</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>5,311,075</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3415,6 +4029,16 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>5,841,020</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>6,168,880</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -3477,6 +4101,16 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
+          <t>105,540,482</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>114,515,220</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -3542,6 +4176,16 @@
           <t>12,226,953</t>
         </is>
       </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>12,870,354</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>12,086,414</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3604,6 +4248,16 @@
           <t>6,243,930</t>
         </is>
       </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>6,745,834</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>6,563,767</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3666,6 +4320,16 @@
           <t>4,787,820</t>
         </is>
       </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>5,297,400</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>5,055,120</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3728,6 +4392,16 @@
           <t>2,930,570</t>
         </is>
       </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>3,044,805</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>3,072,810</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3787,6 +4461,16 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
+          <t>26,189,273</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>27,958,393</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -3852,6 +4536,16 @@
           <t>47,728</t>
         </is>
       </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>47,728</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2,283,250</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3914,6 +4608,16 @@
           <t>100,758</t>
         </is>
       </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>56,469</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>77,381</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -3976,6 +4680,16 @@
           <t>4,270</t>
         </is>
       </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>7,155</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>3,256</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -4035,6 +4749,16 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
+          <t>1,490,050</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>1,492,776</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -4097,6 +4821,16 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
+          <t>32,459,606</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>33,269,238</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -4159,6 +4893,16 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
+          <t>34,102,412</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>34,873,366</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -4220,6 +4964,16 @@
         </is>
       </c>
       <c r="L24" t="inlineStr">
+        <is>
+          <t>169,888,567</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>181,434,779</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/output.xlsx
+++ b/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,7 +497,22 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025.02(월)</t>
+          <t>2025.01(원)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2025.02(원)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2025.03(원)</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2025.04(월)</t>
         </is>
       </c>
     </row>
@@ -572,6 +587,21 @@
           <t>22,747,116</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>22,935,105</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>22,835,656</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>22,835,656</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -644,6 +674,21 @@
           <t>12,430,845</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>13,310,386</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>13,495,696</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>13,495,696</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -716,6 +761,21 @@
           <t>83,744,808</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>81,614,204</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>78,851,182</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>78,851,182</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -785,6 +845,21 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>1,496,247</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1,556,012</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1,671,594</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -857,6 +932,21 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>120,419,016</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>119,415,707</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>116,854,128</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -929,6 +1019,21 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>34,134,689</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>34,785,605</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>35,442,455</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -1001,6 +1106,21 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>34,134,689</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>34,785,605</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>35,442,455</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -1073,6 +1193,21 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>5,220,000</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>5,240,000</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>5,260,000</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -1148,6 +1283,21 @@
           <t>0</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1220,6 +1370,21 @@
           <t>0</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1289,6 +1454,21 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>1,200,000</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>1,200,000</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -1361,6 +1541,21 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
+          <t>640,000</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>720,000</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>800,000</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -1368,7 +1563,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>우리은행 WON플러스예금</t>
+          <t>우리은행 WON플러스예금_1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1432,6 +1627,21 @@
         </is>
       </c>
       <c r="N14" t="inlineStr">
+        <is>
+          <t>3,670,905</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>3,670,905</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>3,670,905</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1440,7 +1650,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>우리은행 우리SUPER주거래정기적금</t>
+          <t>우리은행 WON플러스예금_2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1495,15 +1705,30 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>200,000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>300,000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>1,223,100</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1512,70 +1737,85 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>달러(우리은행 외화보통예금)</t>
+          <t>우리은행 우리SUPER주거래정기적금</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>721,089</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>775,776</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>835,490</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>896,980</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>967,791</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>200,000</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300,000</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
+        <is>
+          <t>400,000</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>500,000</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>600,000</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1584,62 +1824,62 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>우리은행 위비트래블 외화예금(달러)</t>
+          <t>달러(우리은행 외화보통예금)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>721,089</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>775,776</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>835,490</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>896,980</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>967,791</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>55,540</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>109,872</t>
+          <t>54</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>160,776</t>
+          <t>53</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>212,246</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>278,709</t>
+          <t>55</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>338,535</t>
+          <t>55</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1648,6 +1888,21 @@
         </is>
       </c>
       <c r="N17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1656,70 +1911,85 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>우리은행 외화정기예금(자동갱신, 달러)_1</t>
+          <t>우리은행 위비트래블 외화예금(달러)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3,483,329</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3,499,087</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3,535,287</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3,578,396</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3,650,532</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3,677,150</t>
+          <t>55,540</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>3,647,516</t>
+          <t>109,872</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>3,570,942</t>
+          <t>160,776</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3,494,633</t>
+          <t>212,246</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>3,691,066</t>
+          <t>278,709</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>3,754,786</t>
+          <t>338,535</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>5,427,499</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1728,70 +1998,85 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>우리은행 외화정기예금(자동갱신, 달러)_2</t>
+          <t>우리은행 외화정기예금(자동갱신, 달러)_1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,483,329</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,499,087</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,535,287</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,578,396</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,650,532</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>973,310</t>
+          <t>3,677,150</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>965,472</t>
+          <t>3,647,516</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>945,282</t>
+          <t>3,570,942</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>925,069</t>
+          <t>3,494,633</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>977,033</t>
+          <t>3,691,066</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>993,881</t>
+          <t>3,754,786</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5,427,499</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
+        <is>
+          <t>5,364,521</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>5,413,034</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>5,456,389</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1800,286 +2085,346 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>금 현물(krx 금 계좌)</t>
+          <t>우리은행 외화정기예금(자동갱신, 달러)_2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4,165,627</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4,211,496</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4,794,456</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5,000,979</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5,182,839</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>5,178,103</t>
+          <t>973,310</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>5,425,966</t>
+          <t>965,472</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>5,525,876</t>
+          <t>945,282</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>5,756,842</t>
+          <t>925,069</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>6,617,109</t>
+          <t>977,033</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>6,261,177</t>
+          <t>993,881</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>6,718,544</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>7,097,842</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>가상화폐</t>
+          <t>금 현물(krx 금 계좌)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3,966,379</t>
+          <t>4,165,627</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>6,089,225</t>
+          <t>4,211,496</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>7,070,006</t>
+          <t>4,794,456</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6,371,710</t>
+          <t>5,000,979</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>7,357,459</t>
+          <t>5,182,839</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>6,895,441</t>
+          <t>5,178,103</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>7,276,382</t>
+          <t>5,425,966</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>5,983,426</t>
+          <t>5,525,876</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>6,319,630</t>
+          <t>5,756,842</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>7,362,131</t>
+          <t>6,617,109</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>10,066,031</t>
+          <t>6,261,177</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>10,440,108</t>
+          <t>6,718,544</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>11,846,957</t>
+          <t>7,097,842</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>7,497,304</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>8,035,412</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>8,035,412</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>비상금(우리은행 파킹계좌)</t>
+          <t>가상화폐</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2,831,465</t>
+          <t>3,966,379</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2,832,071</t>
+          <t>6,089,225</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2,832,978</t>
+          <t>7,070,006</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2,834,114</t>
+          <t>6,371,710</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2,835,025</t>
+          <t>7,357,459</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2,835,937</t>
+          <t>6,895,441</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2,847,078</t>
+          <t>7,276,382</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2,847,996</t>
+          <t>5,983,426</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2,849,048</t>
+          <t>6,319,630</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2,849,967</t>
+          <t>7,362,131</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2,050,782</t>
+          <t>10,066,031</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2,851,258</t>
+          <t>10,440,108</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11,846,957</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>8,775,041</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>9,311,636</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>9,311,636</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>비상금(미래에셋증권 CMA계좌)</t>
+          <t>비상금(우리은행 파킹계좌)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2,989,198</t>
+          <t>2,831,465</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3,045,763</t>
+          <t>2,832,071</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3,108,518</t>
+          <t>2,832,978</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3,166,209</t>
+          <t>2,834,114</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3,221,875</t>
+          <t>2,835,025</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3,279,115</t>
+          <t>2,835,937</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>3,336,090</t>
+          <t>2,847,078</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>3,393,483</t>
+          <t>2,847,996</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>3,449,618</t>
+          <t>2,849,048</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>3,510,064</t>
+          <t>2,849,967</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>3,570,590</t>
+          <t>2,050,782</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>3,627,274</t>
+          <t>2,851,258</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
+        <is>
+          <t>2,852,230</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>2,853,305</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>1,504,155</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2088,70 +2433,85 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>비목적자금(우리은행 급여 계좌)</t>
+          <t>비상금(미래에셋증권 CMA계좌)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1,172,383</t>
+          <t>2,989,198</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>921,292</t>
+          <t>3,045,763</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1,068,407</t>
+          <t>3,108,518</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>624,419</t>
+          <t>3,166,209</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>763,854</t>
+          <t>3,221,875</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>159,603</t>
+          <t>3,279,115</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1,171,744</t>
+          <t>3,336,090</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>438,178</t>
+          <t>3,393,483</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>555,662</t>
+          <t>3,449,618</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2,335</t>
+          <t>3,510,064</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>145,661</t>
+          <t>3,570,590</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>344,289</t>
+          <t>3,627,274</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
+        <is>
+          <t>3,636,849</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>3,745,702</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>3,751,999</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2160,70 +2520,85 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>비목적자금(새마을금고 생활비 계좌)</t>
+          <t>비목적자금(우리은행 급여 계좌)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>429,603</t>
+          <t>1,172,383</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>39,734</t>
+          <t>921,292</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>83,212</t>
+          <t>1,068,407</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>43,401</t>
+          <t>624,419</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>55,654</t>
+          <t>763,854</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>53,361</t>
+          <t>159,603</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>128,840</t>
+          <t>1,171,744</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>87,330</t>
+          <t>438,178</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24,089</t>
+          <t>555,662</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>15,788</t>
+          <t>2,335</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>310,861</t>
+          <t>145,661</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>9,785</t>
+          <t>344,289</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
+        <is>
+          <t>698,633</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>731,952</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>392,015</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2232,70 +2607,85 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>비목적자금(현금)</t>
+          <t>비목적자금(새마을금고 생활비 계좌)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>30,000</t>
+          <t>429,603</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>20,000</t>
+          <t>39,734</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>19,000</t>
+          <t>83,212</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>43,401</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>55,654</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>53,361</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>128,840</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>87,330</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>24,089</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>15,788</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>310,861</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>9,785</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
+        <is>
+          <t>248,619</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>13,084</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>36,234</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2304,156 +2694,186 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>엔화(우리은행 외화보통예금)</t>
+          <t>비목적자금(현금)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>117,530</t>
+          <t>30,000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>116,017</t>
+          <t>20,000</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>115,779</t>
+          <t>19,000</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>115,622</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>114,292</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>111,865</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>118,649</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>118,509</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>119,298</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>117,148</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>121,373</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>122,275</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>121,927</t>
+          <t>3,000</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>3,000</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>3,000</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>지인에게 빌려준 돈</t>
+          <t>엔화(우리은행 외화보통예금)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>117,530</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>116,017</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>115,779</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>115,622</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>114,292</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>111,865</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>118,649</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>118,509</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>119,298</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>117,148</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>121,373</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>122,275</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>121,927</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>126,341</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>128,350</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>128,350</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>원룸 보증금</t>
+          <t>지인에게 빌려준 돈</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3,000,000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2512,6 +2932,21 @@
         </is>
       </c>
       <c r="N29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2520,70 +2955,85 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>CMA계좌 자산(성과급 임시 보관)</t>
+          <t>원룸 보증금</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4,357,030</t>
+          <t>3,000,000</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>6,888,109</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>6,073,534</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4,487,070</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2,701,397</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2,424,478</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>1,807,513</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>608,526</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>1,802,515</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>904,346</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>100,037</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>200,284</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2592,70 +3042,85 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>금융 자산(안전)</t>
+          <t>CMA계좌 자산(성과급 임시 보관)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>37,543,633</t>
+          <t>4,357,030</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>34,318,570</t>
+          <t>6,888,109</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>36,016,667</t>
+          <t>6,073,534</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>34,101,900</t>
+          <t>4,487,070</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>34,333,718</t>
+          <t>2,701,397</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>33,626,958</t>
+          <t>2,424,478</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>35,398,176</t>
+          <t>1,807,513</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>32,743,377</t>
+          <t>608,526</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>35,071,702</t>
+          <t>1,802,515</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>36,388,751</t>
+          <t>904,346</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>38,247,674</t>
+          <t>100,037</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>40,575,221</t>
+          <t>200,284</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
+        <is>
+          <t>983,774</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2664,214 +3129,259 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>연금저축</t>
+          <t>금융 자산(안전)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>12,663,003</t>
+          <t>37,543,633</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>13,292,628</t>
+          <t>34,318,570</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>14,038,111</t>
+          <t>36,016,667</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>14,381,700</t>
+          <t>34,101,900</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>15,218,675</t>
+          <t>34,333,718</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>16,038,091</t>
+          <t>33,626,958</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>16,078,233</t>
+          <t>35,398,176</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>16,065,065</t>
+          <t>32,743,377</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>16,791,078</t>
+          <t>35,071,702</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>18,654,540</t>
+          <t>36,388,751</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>19,316,033</t>
+          <t>38,247,674</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>21,066,767</t>
+          <t>40,575,221</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>20,787,879</t>
+          <t>43,985,257</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>40,489,668</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>40,173,283</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>퇴직연금(DC형)</t>
+          <t>연금저축</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12,663,003</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13,292,628</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14,038,111</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14,381,700</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15,218,675</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>7,680,167</t>
+          <t>16,038,091</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>7,568,336</t>
+          <t>16,078,233</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>7,543,857</t>
+          <t>16,065,065</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>7,657,885</t>
+          <t>16,791,078</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>8,002,856</t>
+          <t>18,654,540</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>8,157,264</t>
+          <t>19,316,033</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>11,780,058</t>
+          <t>21,066,767</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20,787,879</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>20,920,284</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>20,933,433</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>19,327,094</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>연금 자산</t>
+          <t>퇴직연금(DC형)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>12,663,003</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>13,292,628</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>14,038,111</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>14,381,700</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>15,218,675</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>23,718,258</t>
+          <t>7,680,167</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>23,646,569</t>
+          <t>7,568,336</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>23,608,922</t>
+          <t>7,543,857</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>24,448,963</t>
+          <t>7,657,885</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>26,657,396</t>
+          <t>8,002,856</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>27,473,297</t>
+          <t>8,157,264</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>32,846,825</t>
+          <t>11,780,058</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
+        <is>
+          <t>11,709,217</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>11,475,391</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>11,194,867</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2880,70 +3390,85 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>부채</t>
+          <t>연금 자산</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12,663,003</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13,292,628</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14,038,111</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14,381,700</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15,218,675</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23,718,258</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23,646,569</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23,608,922</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24,448,963</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26,657,396</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27,473,297</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>32,846,825</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
+        <is>
+          <t>32,497,096</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>32,395,675</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>32,128,300</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2952,70 +3477,85 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>순자산(연금자산 제외)</t>
+          <t>부채</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>136,456,550</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>146,408,962</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>151,775,558</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>151,503,934</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>156,140,768</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>159,768,752</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>164,019,061</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>162,371,888</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>167,489,324</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>176,017,195</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>182,979,188</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>194,774,353</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3024,70 +3564,85 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>순자산</t>
+          <t>순자산(연금자산 제외)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>149,119,553</t>
+          <t>136,456,550</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>159,701,590</t>
+          <t>146,408,962</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>165,813,669</t>
+          <t>151,775,558</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>165,885,634</t>
+          <t>151,503,934</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>171,359,443</t>
+          <t>156,140,768</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>183,487,010</t>
+          <t>159,768,752</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>187,665,630</t>
+          <t>164,019,061</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>185,980,810</t>
+          <t>162,371,888</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>191,938,287</t>
+          <t>167,489,324</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>202,674,591</t>
+          <t>176,017,195</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>210,452,485</t>
+          <t>182,979,188</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>227,621,178</t>
+          <t>194,774,353</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
+        <is>
+          <t>198,538,962</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>194,690,980</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>192,469,866</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3096,70 +3651,85 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>자산 합계(연금자산 제외)</t>
+          <t>순자산</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>136,456,550</t>
+          <t>149,119,553</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>146,408,962</t>
+          <t>159,701,590</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>151,775,558</t>
+          <t>165,813,669</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>151,503,934</t>
+          <t>165,885,634</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>156,140,768</t>
+          <t>171,359,443</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>159,768,752</t>
+          <t>183,487,010</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>164,019,061</t>
+          <t>187,665,630</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>162,371,888</t>
+          <t>185,980,810</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>167,489,324</t>
+          <t>191,938,287</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>176,017,195</t>
+          <t>202,674,591</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>182,979,188</t>
+          <t>210,452,485</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>194,774,353</t>
+          <t>227,621,178</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
+        <is>
+          <t>231,036,058</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>227,086,655</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>224,598,166</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3168,70 +3738,172 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
+          <t>자산 합계(연금자산 제외)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>136,456,550</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>146,408,962</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>151,775,558</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>151,503,934</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>156,140,768</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>159,768,752</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>164,019,061</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>162,371,888</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>167,489,324</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>176,017,195</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>182,979,188</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>194,774,353</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>198,538,962</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>194,690,980</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>192,469,866</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
           <t>자산 합계</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>149,119,553</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>159,701,590</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>165,813,669</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>165,885,634</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>171,359,443</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>183,487,010</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>187,665,630</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>185,980,810</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>191,938,287</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>202,674,591</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>210,452,485</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>227,621,178</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>231,036,058</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>227,086,655</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>224,598,166</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3248,7 +3920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3319,7 +3991,22 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025.02(월)</t>
+          <t>2025.01(원)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2025.02(원)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2025.03(원)</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2025.04(월)</t>
         </is>
       </c>
     </row>
@@ -3394,6 +4081,21 @@
           <t>2,969,500</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>3,409,600</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>3,049,400</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>3,049,400</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3463,6 +4165,21 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>286,633</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>35,350</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>16,000</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -3538,6 +4255,21 @@
           <t>0</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3607,6 +4339,21 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>3,256,133</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>3,444,950</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>3,065,400</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -3682,6 +4429,21 @@
           <t>10,660,702</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>10,529,838</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>9,942,085</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>9,942,085</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3754,6 +4516,21 @@
           <t>77,103,659</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>75,117,836</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>71,802,795</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>71,802,795</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3826,6 +4603,21 @@
           <t>15,722,315</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>15,576,150</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>15,411,940</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>14,162,260</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3898,6 +4690,21 @@
           <t>7,188</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>7,018</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>6,547</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>6,006</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3970,6 +4777,21 @@
           <t>5,311,075</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>5,786,695</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>6,794,215</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>6,794,215</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4039,6 +4861,21 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>6,965,160</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>6,794,630</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>6,316,795</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -4111,6 +4948,21 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>115,770,099</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>113,812,167</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>110,274,377</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -4186,6 +5038,21 @@
           <t>12,086,414</t>
         </is>
       </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>12,405,267</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>12,893,571</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>12,893,571</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4258,6 +5125,21 @@
           <t>6,563,767</t>
         </is>
       </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>6,473,287</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>7,010,628</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>7,010,628</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -4330,6 +5212,21 @@
           <t>5,055,120</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>5,325,440</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>5,512,600</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>5,138,500</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -4402,6 +5299,21 @@
           <t>3,072,810</t>
         </is>
       </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>3,042,540</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>3,640,940</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>3,640,940</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -4471,6 +5383,21 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
+          <t>26,778,111</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>27,246,534</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>29,057,739</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -4543,7 +5470,22 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2,283,250</t>
+          <t>1,077,460</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>1,071,551</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>11,141</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>11,141</t>
         </is>
       </c>
     </row>
@@ -4618,6 +5560,21 @@
           <t>77,381</t>
         </is>
       </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>23,081</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>37,759</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>37,759</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -4690,6 +5647,21 @@
           <t>3,256</t>
         </is>
       </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>11,676</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>2,346</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>20,328</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -4759,6 +5731,21 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
+          <t>1,209,614</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>1,520,662</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>1,655,594</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -4831,6 +5818,21 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
+          <t>34,134,689</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>34,785,605</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>35,442,455</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -4903,6 +5905,21 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
+          <t>36,502,400</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>37,412,575</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>37,149,295</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -4974,6 +5991,21 @@
         </is>
       </c>
       <c r="N24" t="inlineStr">
+        <is>
+          <t>182,306,743</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>181,916,226</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>179,546,811</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/output.xlsx
+++ b/output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +512,22 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2025.04(월)</t>
+          <t>2025.04(원)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2025.05(원)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2025.06(원)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2025.08(월)</t>
         </is>
       </c>
     </row>
@@ -599,7 +614,22 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>22,835,656</t>
+          <t>22,473,200</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>23,950,713</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>24,951,489</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>25,938,344</t>
         </is>
       </c>
     </row>
@@ -686,7 +716,22 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>13,495,696</t>
+          <t>13,606,387</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>16,290,502</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>16,683,422</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>17,699,622</t>
         </is>
       </c>
     </row>
@@ -773,7 +818,22 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>78,851,182</t>
+          <t>76,043,070</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>80,109,233</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>81,931,770</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>84,771,691</t>
         </is>
       </c>
     </row>
@@ -860,6 +920,21 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
+          <t>1,684,085</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>1,806,005</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>1,865,238</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -947,6 +1022,21 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
+          <t>113,806,742</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>122,156,453</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>125,431,919</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -1034,6 +1124,21 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
+          <t>36,098,673</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>36,793,285</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>37,419,607</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -1121,6 +1226,21 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
+          <t>36,098,673</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>36,793,285</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>37,419,607</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -1208,6 +1328,21 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
+          <t>5,280,000</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>5,300,000</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,320,000</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -1298,6 +1433,21 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1385,6 +1535,21 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1472,6 +1637,21 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1556,6 +1736,21 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
+          <t>880,000</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>960,000</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -1643,6 +1838,21 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
+          <t>3,670,905</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>975,840</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -1730,6 +1940,21 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
+          <t>1,223,100</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -1817,6 +2042,21 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
+          <t>700,000</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>800,000</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>900,000</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -1824,62 +2064,62 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>달러(우리은행 외화보통예금)</t>
+          <t>MG새마을금고 포스코.MG더뱅킹정기예금</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>721,089</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>775,776</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>835,490</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>896,980</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>967,791</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1903,6 +2143,21 @@
         </is>
       </c>
       <c r="Q17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>4,952,115</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>4,952,115</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1911,62 +2166,62 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>우리은행 위비트래블 외화예금(달러)</t>
+          <t>달러(우리은행 외화보통예금)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>721,089</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>775,776</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>835,490</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>896,980</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>967,791</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>55,540</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>109,872</t>
+          <t>54</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>160,776</t>
+          <t>53</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>212,246</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>278,709</t>
+          <t>55</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>338,535</t>
+          <t>55</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1986,10 +2241,25 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1998,85 +2268,100 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>우리은행 외화정기예금(자동갱신, 달러)_1</t>
+          <t>우리은행 위비트래블 외화예금(달러)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3,483,329</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3,499,087</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3,535,287</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3,578,396</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3,650,532</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3,677,150</t>
+          <t>55,540</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>3,647,516</t>
+          <t>109,872</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>3,570,942</t>
+          <t>160,776</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>3,494,633</t>
+          <t>212,246</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3,691,066</t>
+          <t>278,709</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>3,754,786</t>
+          <t>338,535</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>5,427,499</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>5,364,521</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>5,413,034</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>5,456,389</t>
+          <t>88</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2085,85 +2370,100 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>우리은행 외화정기예금(자동갱신, 달러)_2</t>
+          <t>우리은행 외화정기예금(자동갱신, 달러)_1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,483,329</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,499,087</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,535,287</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,578,396</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,650,532</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>973,310</t>
+          <t>3,677,150</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>965,472</t>
+          <t>3,647,516</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>945,282</t>
+          <t>3,570,942</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>925,069</t>
+          <t>3,494,633</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>977,033</t>
+          <t>3,691,066</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>993,881</t>
+          <t>3,754,786</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5,427,499</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5,364,521</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5,413,034</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5,456,389</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
+        <is>
+          <t>5,311,313</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>5,190,762</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,050,988</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2172,346 +2472,406 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>금 현물(krx 금 계좌)</t>
+          <t>우리은행 외화정기예금(자동갱신, 달러)_2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4,165,627</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4,211,496</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4,794,456</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5,000,979</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>5,182,839</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>5,178,103</t>
+          <t>973,310</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>5,425,966</t>
+          <t>965,472</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>5,525,876</t>
+          <t>945,282</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>5,756,842</t>
+          <t>925,069</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>6,617,109</t>
+          <t>977,033</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>6,261,177</t>
+          <t>993,881</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>6,718,544</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>7,097,842</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>7,497,304</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>8,035,412</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>8,035,412</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>가상화폐</t>
+          <t>금 현물(krx 금 계좌)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3,966,379</t>
+          <t>4,165,627</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>6,089,225</t>
+          <t>4,211,496</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>7,070,006</t>
+          <t>4,794,456</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>6,371,710</t>
+          <t>5,000,979</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>7,357,459</t>
+          <t>5,182,839</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>6,895,441</t>
+          <t>5,178,103</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>7,276,382</t>
+          <t>5,425,966</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>5,983,426</t>
+          <t>5,525,876</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>6,319,630</t>
+          <t>5,756,842</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>7,362,131</t>
+          <t>6,617,109</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>10,066,031</t>
+          <t>6,261,177</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>10,440,108</t>
+          <t>6,718,544</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>11,846,957</t>
+          <t>7,097,842</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>8,775,041</t>
+          <t>7,497,304</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>9,311,636</t>
+          <t>8,035,412</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>9,311,636</t>
+          <t>8,380,205</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>8,370,151</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>8,109,579</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>8,501,417</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>비상금(우리은행 파킹계좌)</t>
+          <t>가상화폐</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2,831,465</t>
+          <t>3,966,379</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2,832,071</t>
+          <t>6,089,225</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2,832,978</t>
+          <t>7,070,006</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2,834,114</t>
+          <t>6,371,710</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2,835,025</t>
+          <t>7,357,459</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2,835,937</t>
+          <t>6,895,441</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2,847,078</t>
+          <t>7,276,382</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2,847,996</t>
+          <t>5,983,426</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2,849,048</t>
+          <t>6,319,630</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2,849,967</t>
+          <t>7,362,131</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2,050,782</t>
+          <t>10,066,031</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2,851,258</t>
+          <t>10,440,108</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2,852,230</t>
+          <t>11,846,957</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2,853,305</t>
+          <t>8,775,041</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>1,504,155</t>
+          <t>9,311,636</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10,755,708</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>11,434,179</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>12,145,010</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>13,504,094</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>비상금(미래에셋증권 CMA계좌)</t>
+          <t>비상금(우리은행 파킹계좌)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2,989,198</t>
+          <t>2,831,465</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3,045,763</t>
+          <t>2,832,071</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3,108,518</t>
+          <t>2,832,978</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3,166,209</t>
+          <t>2,834,114</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3,221,875</t>
+          <t>2,835,025</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3,279,115</t>
+          <t>2,835,937</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>3,336,090</t>
+          <t>2,847,078</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>3,393,483</t>
+          <t>2,847,996</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>3,449,618</t>
+          <t>2,849,048</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>3,510,064</t>
+          <t>2,849,967</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>3,570,590</t>
+          <t>2,050,782</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>3,627,274</t>
+          <t>2,851,258</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>3,636,849</t>
+          <t>2,852,230</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>3,745,702</t>
+          <t>2,853,305</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>3,751,999</t>
+          <t>1,504,155</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
+        <is>
+          <t>2,554,361</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>2,656,457</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>3,156,605</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2520,85 +2880,100 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>비목적자금(우리은행 급여 계좌)</t>
+          <t>비상금(미래에셋증권 CMA계좌)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1,172,383</t>
+          <t>2,989,198</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>921,292</t>
+          <t>3,045,763</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1,068,407</t>
+          <t>3,108,518</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>624,419</t>
+          <t>3,166,209</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>763,854</t>
+          <t>3,221,875</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>159,603</t>
+          <t>3,279,115</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1,171,744</t>
+          <t>3,336,090</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>438,178</t>
+          <t>3,393,483</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>555,662</t>
+          <t>3,449,618</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2,335</t>
+          <t>3,510,064</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>145,661</t>
+          <t>3,570,590</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>344,289</t>
+          <t>3,627,274</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>698,633</t>
+          <t>3,636,849</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>731,952</t>
+          <t>3,745,702</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>392,015</t>
+          <t>3,751,999</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
+        <is>
+          <t>3,859,981</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>3,870,791</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>3,876,364</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2607,85 +2982,100 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>비목적자금(새마을금고 생활비 계좌)</t>
+          <t>비목적자금(우리은행 급여 계좌)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>429,603</t>
+          <t>1,172,383</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>39,734</t>
+          <t>921,292</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>83,212</t>
+          <t>1,068,407</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>43,401</t>
+          <t>624,419</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>55,654</t>
+          <t>763,854</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>53,361</t>
+          <t>159,603</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>128,840</t>
+          <t>1,171,744</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>87,330</t>
+          <t>438,178</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>24,089</t>
+          <t>555,662</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>15,788</t>
+          <t>2,335</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>310,861</t>
+          <t>145,661</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>9,785</t>
+          <t>344,289</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>248,619</t>
+          <t>698,633</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>13,084</t>
+          <t>731,952</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>36,234</t>
+          <t>392,015</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
+        <is>
+          <t>13,102</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>63,393</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>290,937</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2694,85 +3084,100 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>비목적자금(현금)</t>
+          <t>비목적자금(새마을금고 생활비 계좌)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>30,000</t>
+          <t>429,603</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>20,000</t>
+          <t>39,734</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>19,000</t>
+          <t>83,212</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>43,401</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>55,654</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>53,361</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>128,840</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>87,330</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>24,089</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>15,788</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>310,861</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>9,785</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>248,619</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>13,084</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>36,234</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
+        <is>
+          <t>8,915</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>45,803</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>345,803</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2781,186 +3186,216 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>엔화(우리은행 외화보통예금)</t>
+          <t>비목적자금(현금)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>117,530</t>
+          <t>30,000</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>116,017</t>
+          <t>20,000</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>115,779</t>
+          <t>19,000</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>115,622</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>114,292</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>111,865</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>118,649</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>118,509</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>119,298</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>117,148</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>121,373</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>122,275</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>121,927</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>126,341</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>128,350</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>128,350</t>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>지인에게 빌려준 돈</t>
+          <t>엔화(우리은행 외화보통예금)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>117,530</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>116,017</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>115,779</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>115,622</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>114,292</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>111,865</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>118,649</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>118,509</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>119,298</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>117,148</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>121,373</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>122,275</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>121,927</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>126,341</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>128,350</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>130,091</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>122,411</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>122,007</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>122,700</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>원룸 보증금</t>
+          <t>지인에게 빌려준 돈</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3,000,000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3034,6 +3469,21 @@
         </is>
       </c>
       <c r="Q30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>300,000</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>300,000</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3042,72 +3492,72 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>CMA계좌 자산(성과급 임시 보관)</t>
+          <t>원룸 보증금</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4,357,030</t>
+          <t>3,000,000</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>6,888,109</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>6,073,534</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4,487,070</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2,701,397</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2,424,478</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1,807,513</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>608,526</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>1,802,515</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>904,346</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>100,037</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>200,284</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>983,774</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -3121,6 +3571,21 @@
         </is>
       </c>
       <c r="Q31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3129,85 +3594,100 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>금융 자산(안전)</t>
+          <t>CMA계좌 자산(성과급 임시 보관)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>37,543,633</t>
+          <t>4,357,030</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>34,318,570</t>
+          <t>6,888,109</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>36,016,667</t>
+          <t>6,073,534</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>34,101,900</t>
+          <t>4,487,070</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>34,333,718</t>
+          <t>2,701,397</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>33,626,958</t>
+          <t>2,424,478</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>35,398,176</t>
+          <t>1,807,513</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>32,743,377</t>
+          <t>608,526</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>35,071,702</t>
+          <t>1,802,515</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>36,388,751</t>
+          <t>904,346</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>38,247,674</t>
+          <t>100,037</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>40,575,221</t>
+          <t>200,284</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>43,985,257</t>
+          <t>983,774</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>40,489,668</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>40,173,283</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>2,001,674</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3216,259 +3696,304 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>연금저축</t>
+          <t>금융 자산(안전)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>12,663,003</t>
+          <t>37,543,633</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>13,292,628</t>
+          <t>34,318,570</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>14,038,111</t>
+          <t>36,016,667</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>14,381,700</t>
+          <t>34,101,900</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>15,218,675</t>
+          <t>34,333,718</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>16,038,091</t>
+          <t>33,626,958</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>16,078,233</t>
+          <t>35,398,176</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>16,065,065</t>
+          <t>32,743,377</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>16,791,078</t>
+          <t>35,071,702</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>18,654,540</t>
+          <t>36,388,751</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>19,316,033</t>
+          <t>38,247,674</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>21,066,767</t>
+          <t>40,575,221</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>20,787,879</t>
+          <t>43,985,257</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>20,920,284</t>
+          <t>40,489,668</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>20,933,433</t>
+          <t>40,173,283</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>19,327,094</t>
+          <t>42,768,766</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>44,067,145</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>47,628,003</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>퇴직연금(DC형)</t>
+          <t>연금저축</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12,663,003</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13,292,628</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14,038,111</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14,381,700</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15,218,675</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>7,680,167</t>
+          <t>16,038,091</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>7,568,336</t>
+          <t>16,078,233</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>7,543,857</t>
+          <t>16,065,065</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>7,657,885</t>
+          <t>16,791,078</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>8,002,856</t>
+          <t>18,654,540</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>8,157,264</t>
+          <t>19,316,033</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>11,780,058</t>
+          <t>21,066,767</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>11,709,217</t>
+          <t>20,787,879</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>11,475,391</t>
+          <t>20,920,284</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>11,194,867</t>
+          <t>20,933,433</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19,853,888</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>21,192,125</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>22,271,087</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>23,402,770</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>연금 자산</t>
+          <t>퇴직연금(DC형)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>12,663,003</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>13,292,628</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>14,038,111</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>14,381,700</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>15,218,675</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>23,718,258</t>
+          <t>7,680,167</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>23,646,569</t>
+          <t>7,568,336</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>23,608,922</t>
+          <t>7,543,857</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>24,448,963</t>
+          <t>7,657,885</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>26,657,396</t>
+          <t>8,002,856</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>27,473,297</t>
+          <t>8,157,264</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>32,846,825</t>
+          <t>11,780,058</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>32,497,096</t>
+          <t>11,709,217</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>32,395,675</t>
+          <t>11,475,391</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>32,128,300</t>
+          <t>11,194,867</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
+        <is>
+          <t>10,756,718</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>11,117,737</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>11,452,731</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3477,85 +4002,100 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>부채</t>
+          <t>연금 자산</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12,663,003</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13,292,628</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14,038,111</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14,381,700</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15,218,675</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23,718,258</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23,646,569</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23,608,922</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24,448,963</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26,657,396</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27,473,297</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>32,846,825</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>32,497,096</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>32,395,675</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>32,128,300</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
+        <is>
+          <t>30,610,606</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>32,309,862</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>33,723,818</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3564,85 +4104,100 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>순자산(연금자산 제외)</t>
+          <t>부채</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>136,456,550</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>146,408,962</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>151,775,558</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>151,503,934</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>156,140,768</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>159,768,752</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>164,019,061</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>162,371,888</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>167,489,324</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>176,017,195</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>182,979,188</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>194,774,353</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>198,538,962</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>194,690,980</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>192,469,866</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3651,85 +4206,100 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>순자산</t>
+          <t>순자산(연금자산 제외)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>149,119,553</t>
+          <t>136,456,550</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>159,701,590</t>
+          <t>146,408,962</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>165,813,669</t>
+          <t>151,775,558</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>165,885,634</t>
+          <t>151,503,934</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>171,359,443</t>
+          <t>156,140,768</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>183,487,010</t>
+          <t>159,768,752</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>187,665,630</t>
+          <t>164,019,061</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>185,980,810</t>
+          <t>162,371,888</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>191,938,287</t>
+          <t>167,489,324</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>202,674,591</t>
+          <t>176,017,195</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>210,452,485</t>
+          <t>182,979,188</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>227,621,178</t>
+          <t>194,774,353</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>231,036,058</t>
+          <t>198,538,962</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>227,086,655</t>
+          <t>194,690,980</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>224,598,166</t>
+          <t>192,469,866</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
+        <is>
+          <t>192,674,181</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>203,016,883</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>210,479,529</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3738,85 +4308,100 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>자산 합계(연금자산 제외)</t>
+          <t>순자산</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>136,456,550</t>
+          <t>149,119,553</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>146,408,962</t>
+          <t>159,701,590</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>151,775,558</t>
+          <t>165,813,669</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>151,503,934</t>
+          <t>165,885,634</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>156,140,768</t>
+          <t>171,359,443</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>159,768,752</t>
+          <t>183,487,010</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>164,019,061</t>
+          <t>187,665,630</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>162,371,888</t>
+          <t>185,980,810</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>167,489,324</t>
+          <t>191,938,287</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>176,017,195</t>
+          <t>202,674,591</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>182,979,188</t>
+          <t>210,452,485</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>194,774,353</t>
+          <t>227,621,178</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>198,538,962</t>
+          <t>231,036,058</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>194,690,980</t>
+          <t>227,086,655</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>192,469,866</t>
+          <t>224,598,166</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
+        <is>
+          <t>223,284,787</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>235,326,745</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>244,203,347</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3825,85 +4410,202 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
+          <t>자산 합계(연금자산 제외)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>136,456,550</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>146,408,962</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>151,775,558</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>151,503,934</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>156,140,768</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>159,768,752</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>164,019,061</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>162,371,888</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>167,489,324</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>176,017,195</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>182,979,188</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>194,774,353</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>198,538,962</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>194,690,980</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>192,469,866</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>192,674,181</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>203,016,883</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>210,479,529</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
           <t>자산 합계</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>149,119,553</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>159,701,590</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>165,813,669</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>165,885,634</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>171,359,443</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>183,487,010</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>187,665,630</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>185,980,810</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>191,938,287</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>202,674,591</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>210,452,485</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>227,621,178</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="N41" t="inlineStr">
         <is>
           <t>231,036,058</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>227,086,655</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="P41" t="inlineStr">
         <is>
           <t>224,598,166</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>223,284,787</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>235,326,745</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>244,203,347</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3920,7 +4622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4006,7 +4708,22 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2025.04(월)</t>
+          <t>2025.04(원)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2025.05(원)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2025.06(원)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2025.08(월)</t>
         </is>
       </c>
     </row>
@@ -4093,7 +4810,22 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>3,049,400</t>
+          <t>2,990,800</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>4,574,000</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>4,125,400</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>4,002,000</t>
         </is>
       </c>
     </row>
@@ -4180,6 +4912,21 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
+          <t>45,600</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>151,500</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>220,000</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -4270,6 +5017,21 @@
           <t>0</t>
         </is>
       </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -4354,6 +5116,21 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
+          <t>3,036,400</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>4,725,500</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,345,400</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -4441,7 +5218,22 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>9,942,085</t>
+          <t>9,782,767</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>11,027,341</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>11,427,913</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>11,917,502</t>
         </is>
       </c>
     </row>
@@ -4528,7 +5320,22 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>71,802,795</t>
+          <t>68,819,426</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>72,800,593</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>74,443,426</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>77,311,479</t>
         </is>
       </c>
     </row>
@@ -4615,7 +5422,22 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>14,162,260</t>
+          <t>14,538,680</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>15,812,860</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>16,684,695</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>17,401,645</t>
         </is>
       </c>
     </row>
@@ -4702,7 +5524,22 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>6,006</t>
+          <t>6,328</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>7,113</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>7,328</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>7,550</t>
         </is>
       </c>
     </row>
@@ -4789,7 +5626,22 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>6,794,215</t>
+          <t>7,074,865</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>8,213,230</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>9,011,915</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>10,098,100</t>
         </is>
       </c>
     </row>
@@ -4876,6 +5728,21 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
+          <t>6,532,280</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>7,047,180</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>7,351,320</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -4963,6 +5830,21 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
+          <t>106,754,346</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>114,908,317</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>118,926,597</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -5050,7 +5932,22 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>12,893,571</t>
+          <t>12,690,433</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>12,923,372</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>13,523,576</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>14,020,842</t>
         </is>
       </c>
     </row>
@@ -5137,7 +6034,22 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>7,010,628</t>
+          <t>7,190,104</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>7,195,019</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>7,390,920</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>7,351,770</t>
         </is>
       </c>
     </row>
@@ -5224,7 +6136,22 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>5,138,500</t>
+          <t>5,184,040</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>5,345,310</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,561,860</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>5,877,840</t>
         </is>
       </c>
     </row>
@@ -5311,7 +6238,22 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>3,640,940</t>
+          <t>3,539,770</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>3,497,830</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>3,538,075</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>3,595,500</t>
         </is>
       </c>
     </row>
@@ -5398,6 +6340,21 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
+          <t>28,604,347</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>28,961,531</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>30,014,431</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -5485,7 +6442,22 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>11,141</t>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>5,442</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>8,032</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>4,022</t>
         </is>
       </c>
     </row>
@@ -5572,7 +6544,22 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>37,759</t>
+          <t>33,541</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>113,621</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>97,424</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>108,441</t>
         </is>
       </c>
     </row>
@@ -5659,7 +6646,22 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>20,328</t>
+          <t>124,840</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>26,842</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>17,204</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>115,735</t>
         </is>
       </c>
     </row>
@@ -5746,6 +6748,21 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
+          <t>1,638,485</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>1,654,505</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>1,645,238</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -5833,6 +6850,21 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
+          <t>36,098,673</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>36,793,285</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>37,419,607</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -5920,6 +6952,21 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
+          <t>37,896,491</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>38,593,695</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>39,187,505</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
@@ -6006,6 +7053,21 @@
         </is>
       </c>
       <c r="Q24" t="inlineStr">
+        <is>
+          <t>176,291,584</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>187,189,043</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>192,473,933</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0ED12B9-1A7F-4DEC-8EAA-66B38F213920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF26858-1C58-4DEE-9C2B-30C9A05B2968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,25 +36,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
   <si>
-    <t>2025.10(월)</t>
+    <t>2025.11(월)</t>
   </si>
   <si>
     <t>적립식 펀드</t>
   </si>
   <si>
-    <t>26,755,917</t>
+    <t>29,748,869</t>
   </si>
   <si>
     <t>국내 주식(중개형ISA)</t>
   </si>
   <si>
-    <t>18,110,613</t>
+    <t>21,082,656</t>
   </si>
   <si>
     <t>해외 주식</t>
   </si>
   <si>
-    <t>89,067,391</t>
+    <t>100,066,710</t>
   </si>
   <si>
     <t>공모주 투자</t>
@@ -114,13 +114,13 @@
     <t>금 현물(krx 금 계좌)</t>
   </si>
   <si>
-    <t>8,787,101</t>
+    <t>11,112,201</t>
   </si>
   <si>
     <t>가상화폐</t>
   </si>
   <si>
-    <t>13,551,015</t>
+    <t>14,772,801</t>
   </si>
   <si>
     <t>비상금(우리은행 파킹계좌)</t>
@@ -141,7 +141,7 @@
     <t>엔화(우리은행 외화보통예금)</t>
   </si>
   <si>
-    <t>122,588</t>
+    <t>120,720</t>
   </si>
   <si>
     <t>지인에게 빌려준 돈</t>
@@ -159,7 +159,7 @@
     <t>연금저축</t>
   </si>
   <si>
-    <t>24,523,740</t>
+    <t>27,900,932</t>
   </si>
   <si>
     <t>퇴직연금(DC형)</t>
@@ -198,31 +198,31 @@
     <t>적립식 펀드_선진국</t>
   </si>
   <si>
-    <t>12,110,552</t>
+    <t>13,803,953</t>
   </si>
   <si>
     <t>주식_선진국</t>
   </si>
   <si>
-    <t>81,438,077</t>
+    <t>91,781,097</t>
   </si>
   <si>
     <t>연금저축(ETF)_선진국</t>
   </si>
   <si>
-    <t>17,901,600</t>
+    <t>20,338,010</t>
   </si>
   <si>
     <t>연금저축(펀드)_선진국</t>
   </si>
   <si>
-    <t>7,568</t>
+    <t>8,322</t>
   </si>
   <si>
     <t>주식(중개형ISA)_선진국</t>
   </si>
   <si>
-    <t>12,625,140</t>
+    <t>15,231,840</t>
   </si>
   <si>
     <t>선진국 합계</t>
@@ -231,25 +231,25 @@
     <t>적립식 펀드_신흥국</t>
   </si>
   <si>
-    <t>14,645,365</t>
+    <t>15,944,916</t>
   </si>
   <si>
     <t>주식_신흥국</t>
   </si>
   <si>
-    <t>7,571,139</t>
+    <t>8,093,227</t>
   </si>
   <si>
     <t>연금저축_신흥국</t>
   </si>
   <si>
-    <t>6,584,700</t>
+    <t>7,448,760</t>
   </si>
   <si>
     <t>주식(중개형ISA)_신흥국</t>
   </si>
   <si>
-    <t>5,471,316</t>
+    <t>5,849,940</t>
   </si>
   <si>
     <t>신흥국 합계</t>
@@ -258,19 +258,19 @@
     <t>주식(중개형ISA)_예수금</t>
   </si>
   <si>
-    <t>14,157</t>
+    <t>876</t>
   </si>
   <si>
     <t>해외주식_예수금</t>
   </si>
   <si>
-    <t>58,176</t>
+    <t>192,386</t>
   </si>
   <si>
     <t>연금저축_예수금</t>
   </si>
   <si>
-    <t>29,872</t>
+    <t>105,840</t>
   </si>
   <si>
     <t>공모주 투자_예수금</t>
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1019,6 +1019,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1027,7 +1028,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
